--- a/amenities.xlsx
+++ b/amenities.xlsx
@@ -31,39 +31,39 @@
     <t>Dryer</t>
   </si>
   <si>
+    <t>Dog(s)</t>
+  </si>
+  <si>
+    <t>Washer</t>
+  </si>
+  <si>
     <t>Cat(s)</t>
   </si>
   <si>
-    <t>Dog(s)</t>
-  </si>
-  <si>
-    <t>Washer</t>
+    <t>Heating</t>
+  </si>
+  <si>
+    <t>Hot Tub</t>
   </si>
   <si>
     <t>Doorman</t>
   </si>
   <si>
+    <t>Hangers</t>
+  </si>
+  <si>
     <t>Shampoo</t>
   </si>
   <si>
-    <t>Hangers</t>
-  </si>
-  <si>
     <t>Kitchen</t>
   </si>
   <si>
-    <t>Heating</t>
-  </si>
-  <si>
-    <t>Hot Tub</t>
+    <t>Internet</t>
   </si>
   <si>
     <t>Cable TV</t>
   </si>
   <si>
-    <t>Internet</t>
-  </si>
-  <si>
     <t>Breakfast</t>
   </si>
   <si>
@@ -85,36 +85,36 @@
     <t>First Aid Kit</t>
   </si>
   <si>
+    <t>Washer / Dryer</t>
+  </si>
+  <si>
     <t>Smoke Detector</t>
   </si>
   <si>
-    <t>Washer / Dryer</t>
-  </si>
-  <si>
     <t>Smoking Allowed</t>
   </si>
   <si>
+    <t>Indoor Fireplace</t>
+  </si>
+  <si>
     <t>24-Hour Check-in</t>
   </si>
   <si>
-    <t>Indoor Fireplace</t>
-  </si>
-  <si>
     <t>Air Conditioning</t>
   </si>
   <si>
+    <t>Fire Extinguisher</t>
+  </si>
+  <si>
     <t>Wireless Internet</t>
   </si>
   <si>
-    <t>Fire Extinguisher</t>
+    <t>Family/Kid Friendly</t>
   </si>
   <si>
     <t>Suitable for Events</t>
   </si>
   <si>
-    <t>Family/Kid Friendly</t>
-  </si>
-  <si>
     <t>Elevator in Building</t>
   </si>
   <si>
@@ -124,13 +124,13 @@
     <t>Wheelchair Accessible</t>
   </si>
   <si>
+    <t>Carbon Monoxide Detector</t>
+  </si>
+  <si>
     <t>Buzzer/Wireless Intercom</t>
   </si>
   <si>
     <t>Free Parking on Premises</t>
-  </si>
-  <si>
-    <t>Carbon Monoxide Detector</t>
   </si>
   <si>
     <t>Laptop Friendly Workspace</t>

--- a/amenities.xlsx
+++ b/amenities.xlsx
@@ -31,13 +31,22 @@
     <t>Dryer</t>
   </si>
   <si>
+    <t>Cat(s)</t>
+  </si>
+  <si>
     <t>Dog(s)</t>
   </si>
   <si>
     <t>Washer</t>
   </si>
   <si>
-    <t>Cat(s)</t>
+    <t>Kitchen</t>
+  </si>
+  <si>
+    <t>Shampoo</t>
+  </si>
+  <si>
+    <t>Hangers</t>
   </si>
   <si>
     <t>Heating</t>
@@ -49,15 +58,6 @@
     <t>Doorman</t>
   </si>
   <si>
-    <t>Hangers</t>
-  </si>
-  <si>
-    <t>Shampoo</t>
-  </si>
-  <si>
-    <t>Kitchen</t>
-  </si>
-  <si>
     <t>Internet</t>
   </si>
   <si>
@@ -67,12 +67,12 @@
     <t>Breakfast</t>
   </si>
   <si>
+    <t>Essentials</t>
+  </si>
+  <si>
     <t>Hair Dryer</t>
   </si>
   <si>
-    <t>Essentials</t>
-  </si>
-  <si>
     <t>Safety Card</t>
   </si>
   <si>
@@ -109,16 +109,16 @@
     <t>Wireless Internet</t>
   </si>
   <si>
+    <t>Suitable for Events</t>
+  </si>
+  <si>
     <t>Family/Kid Friendly</t>
   </si>
   <si>
-    <t>Suitable for Events</t>
+    <t>Lock on Bedroom Door</t>
   </si>
   <si>
     <t>Elevator in Building</t>
-  </si>
-  <si>
-    <t>Lock on Bedroom Door</t>
   </si>
   <si>
     <t>Wheelchair Accessible</t>
